--- a/SK Table S-1.xlsx
+++ b/SK Table S-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1173,6 +1173,46 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JBC03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>warm-water coral</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Porites porites</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>26</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>26.42(±1.95)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.52(±0.52)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SK Table S-1.xlsx
+++ b/SK Table S-1.xlsx
@@ -1193,7 +1193,7 @@
         <v>24.83</v>
       </c>
       <c r="E19" t="n">
-        <v>76.33</v>
+        <v>-76.33</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1204,12 +1204,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>26.42(±1.95)</t>
+          <t>26.09(±2.21)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.52(±0.52)</t>
+          <t>0.90(±0.90)</t>
         </is>
       </c>
     </row>
